--- a/biology/Médecine/Christian_Bernhard_Albinus/Christian_Bernhard_Albinus.xlsx
+++ b/biology/Médecine/Christian_Bernhard_Albinus/Christian_Bernhard_Albinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Bernhard Albinus est un médecin allemand, né à Berlin en 1699. Il est mort à Utrecht le 5 avril 1752. 
 Il est le fils de Bernhard Albinus (1653-1721) et le frère de Bernhard Siegfried Albinus (1697-1770) et de Frederik Bernard Albinus (1715-1778).
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Reçu docteur en médecine en 1724, il fut nommé professeur de médecine à l'université d'Utrecht et fut élu député de cette ville à l'assemblée des États généraux en 1750.
 </t>
@@ -543,7 +557,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On a de lui plusieurs opuscules où il démontre par de nombreux exemples combien il est utile d'ouvrir les cadavres pour s'éclairer sur les causes et les effets des maladies : 
 De anatome errores detegente in medicina (1723)</t>
